--- a/B4P Test Apps/Github Data/Result.xlsx
+++ b/B4P Test Apps/Github Data/Result.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafael/git/gzb/Beyond4P_Apps/B4P Test Apps/Github Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P_Apps\B4P Test Apps\Github Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F386D186-2DA9-4F43-A37C-C9A7B37F2A48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="460" windowWidth="34560" windowHeight="21060"/>
+    <workbookView xWindow="420" yWindow="-15765" windowWidth="25590" windowHeight="14955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Result" sheetId="1" r:id="rId1"/>
@@ -2938,8 +2939,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -3149,7 +3150,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3224,6 +3225,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4300,31 +4304,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I419"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="58.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="133.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="58.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="133.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" customWidth="1"/>
     <col min="9" max="9" width="18" style="1" customWidth="1"/>
-    <col min="10" max="255" width="8.33203125" customWidth="1"/>
+    <col min="10" max="255" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="20.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4353,7 +4357,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="20.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>370</v>
       </c>
@@ -4380,7 +4384,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>283</v>
       </c>
@@ -4409,7 +4413,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
@@ -4438,7 +4442,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>505</v>
       </c>
@@ -4465,7 +4469,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>28</v>
       </c>
@@ -4492,7 +4496,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -4519,7 +4523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -4544,7 +4548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>784</v>
       </c>
@@ -4571,7 +4575,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>344</v>
       </c>
@@ -4596,7 +4600,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>486</v>
       </c>
@@ -4625,7 +4629,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
@@ -4652,7 +4656,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>367</v>
       </c>
@@ -4679,7 +4683,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>150</v>
       </c>
@@ -4706,7 +4710,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>374</v>
       </c>
@@ -4733,7 +4737,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="7" t="s">
         <v>420</v>
       </c>
@@ -4758,7 +4762,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
@@ -4785,7 +4789,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="7" t="s">
         <v>111</v>
       </c>
@@ -4812,7 +4816,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="7" t="s">
         <v>756</v>
       </c>
@@ -4837,7 +4841,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="7" t="s">
         <v>44</v>
       </c>
@@ -4864,7 +4868,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="7" t="s">
         <v>30</v>
       </c>
@@ -4891,7 +4895,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="7" t="s">
         <v>478</v>
       </c>
@@ -4918,7 +4922,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="7" t="s">
         <v>170</v>
       </c>
@@ -4945,7 +4949,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="7" t="s">
         <v>55</v>
       </c>
@@ -4972,7 +4976,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="7" t="s">
         <v>279</v>
       </c>
@@ -4999,7 +5003,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="7" t="s">
         <v>46</v>
       </c>
@@ -5026,7 +5030,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="7" t="s">
         <v>354</v>
       </c>
@@ -5049,7 +5053,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="7" t="s">
         <v>448</v>
       </c>
@@ -5072,7 +5076,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="7" t="s">
         <v>404</v>
       </c>
@@ -5099,7 +5103,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="7" t="s">
         <v>426</v>
       </c>
@@ -5128,7 +5132,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="7" t="s">
         <v>63</v>
       </c>
@@ -5155,7 +5159,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="7" t="s">
         <v>36</v>
       </c>
@@ -5182,7 +5186,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="7" t="s">
         <v>40</v>
       </c>
@@ -5207,7 +5211,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="7" t="s">
         <v>73</v>
       </c>
@@ -5232,7 +5236,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="7" t="s">
         <v>129</v>
       </c>
@@ -5261,7 +5265,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="7" t="s">
         <v>441</v>
       </c>
@@ -5286,7 +5290,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="7" t="s">
         <v>484</v>
       </c>
@@ -5311,7 +5315,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="7" t="s">
         <v>76</v>
       </c>
@@ -5336,7 +5340,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="7" t="s">
         <v>469</v>
       </c>
@@ -5363,7 +5367,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="7" t="s">
         <v>790</v>
       </c>
@@ -5388,7 +5392,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="7" t="s">
         <v>59</v>
       </c>
@@ -5415,7 +5419,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="7" t="s">
         <v>48</v>
       </c>
@@ -5442,7 +5446,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="7" t="s">
         <v>173</v>
       </c>
@@ -5469,7 +5473,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="7" t="s">
         <v>95</v>
       </c>
@@ -5494,7 +5498,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="7" t="s">
         <v>222</v>
       </c>
@@ -5521,7 +5525,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="7" t="s">
         <v>32</v>
       </c>
@@ -5550,7 +5554,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="7" t="s">
         <v>71</v>
       </c>
@@ -5575,7 +5579,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="7" t="s">
         <v>155</v>
       </c>
@@ -5602,7 +5606,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="7" t="s">
         <v>319</v>
       </c>
@@ -5627,7 +5631,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="7" t="s">
         <v>577</v>
       </c>
@@ -5650,7 +5654,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="7" t="s">
         <v>787</v>
       </c>
@@ -5677,7 +5681,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="7" t="s">
         <v>793</v>
       </c>
@@ -5702,7 +5706,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="7" t="s">
         <v>272</v>
       </c>
@@ -5729,7 +5733,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="7" t="s">
         <v>570</v>
       </c>
@@ -5754,7 +5758,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="7" t="s">
         <v>57</v>
       </c>
@@ -5779,7 +5783,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="7" t="s">
         <v>70</v>
       </c>
@@ -5804,7 +5808,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="7" t="s">
         <v>75</v>
       </c>
@@ -5829,7 +5833,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="7" t="s">
         <v>110</v>
       </c>
@@ -5852,7 +5856,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="7" t="s">
         <v>257</v>
       </c>
@@ -5879,7 +5883,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="7" t="s">
         <v>320</v>
       </c>
@@ -5902,7 +5906,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="7" t="s">
         <v>321</v>
       </c>
@@ -5925,7 +5929,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="7" t="s">
         <v>434</v>
       </c>
@@ -5950,7 +5954,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="7" t="s">
         <v>489</v>
       </c>
@@ -5975,7 +5979,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="7" t="s">
         <v>50</v>
       </c>
@@ -6002,7 +6006,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="7" t="s">
         <v>163</v>
       </c>
@@ -6029,7 +6033,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="7" t="s">
         <v>176</v>
       </c>
@@ -6056,7 +6060,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="7" t="s">
         <v>342</v>
       </c>
@@ -6081,7 +6085,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="7" t="s">
         <v>98</v>
       </c>
@@ -6108,7 +6112,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="7" t="s">
         <v>106</v>
       </c>
@@ -6135,7 +6139,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="7" t="s">
         <v>334</v>
       </c>
@@ -6158,7 +6162,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="7" t="s">
         <v>390</v>
       </c>
@@ -6185,7 +6189,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="7" t="s">
         <v>453</v>
       </c>
@@ -6210,7 +6214,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="7" t="s">
         <v>475</v>
       </c>
@@ -6235,7 +6239,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="7" t="s">
         <v>699</v>
       </c>
@@ -6260,7 +6264,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="7" t="s">
         <v>66</v>
       </c>
@@ -6289,7 +6293,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="7" t="s">
         <v>77</v>
       </c>
@@ -6314,7 +6318,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="7" t="s">
         <v>81</v>
       </c>
@@ -6339,7 +6343,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="7" t="s">
         <v>260</v>
       </c>
@@ -6368,7 +6372,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="7" t="s">
         <v>274</v>
       </c>
@@ -6393,7 +6397,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A80" s="7" t="s">
         <v>322</v>
       </c>
@@ -6418,7 +6422,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A81" s="7" t="s">
         <v>328</v>
       </c>
@@ -6447,7 +6451,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A82" s="7" t="s">
         <v>385</v>
       </c>
@@ -6474,7 +6478,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="7" t="s">
         <v>398</v>
       </c>
@@ -6501,7 +6505,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A84" s="7" t="s">
         <v>401</v>
       </c>
@@ -6528,7 +6532,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A85" s="7" t="s">
         <v>413</v>
       </c>
@@ -6555,7 +6559,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A86" s="7" t="s">
         <v>417</v>
       </c>
@@ -6582,7 +6586,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A87" s="7" t="s">
         <v>439</v>
       </c>
@@ -6607,7 +6611,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A88" s="7" t="s">
         <v>450</v>
       </c>
@@ -6634,7 +6638,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A89" s="7" t="s">
         <v>466</v>
       </c>
@@ -6659,7 +6663,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A90" s="7" t="s">
         <v>581</v>
       </c>
@@ -6682,7 +6686,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A91" s="7" t="s">
         <v>597</v>
       </c>
@@ -6705,7 +6709,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A92" s="7" t="s">
         <v>658</v>
       </c>
@@ -6732,7 +6736,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A93" s="7" t="s">
         <v>663</v>
       </c>
@@ -6757,7 +6761,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A94" s="7" t="s">
         <v>727</v>
       </c>
@@ -6784,7 +6788,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A95" s="7" t="s">
         <v>762</v>
       </c>
@@ -6809,7 +6813,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A96" s="7" t="s">
         <v>775</v>
       </c>
@@ -6834,7 +6838,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A97" s="7" t="s">
         <v>41</v>
       </c>
@@ -6863,7 +6867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A98" s="7" t="s">
         <v>19</v>
       </c>
@@ -6890,7 +6894,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A99" s="7" t="s">
         <v>267</v>
       </c>
@@ -6917,7 +6921,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A100" s="7" t="s">
         <v>277</v>
       </c>
@@ -6942,7 +6946,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A101" s="7" t="s">
         <v>472</v>
       </c>
@@ -6969,7 +6973,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A102" s="7" t="s">
         <v>508</v>
       </c>
@@ -6996,7 +7000,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A103" s="7" t="s">
         <v>58</v>
       </c>
@@ -7021,7 +7025,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A104" s="7" t="s">
         <v>79</v>
       </c>
@@ -7046,7 +7050,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A105" s="7" t="s">
         <v>82</v>
       </c>
@@ -7071,7 +7075,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A106" s="7" t="s">
         <v>91</v>
       </c>
@@ -7096,7 +7100,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A107" s="7" t="s">
         <v>114</v>
       </c>
@@ -7123,7 +7127,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A108" s="7" t="s">
         <v>124</v>
       </c>
@@ -7148,7 +7152,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A109" s="7" t="s">
         <v>125</v>
       </c>
@@ -7173,7 +7177,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A110" s="7" t="s">
         <v>178</v>
       </c>
@@ -7200,7 +7204,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A111" s="7" t="s">
         <v>218</v>
       </c>
@@ -7227,7 +7231,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A112" s="7" t="s">
         <v>287</v>
       </c>
@@ -7250,7 +7254,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A113" s="7" t="s">
         <v>289</v>
       </c>
@@ -7273,7 +7277,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A114" s="7" t="s">
         <v>290</v>
       </c>
@@ -7298,7 +7302,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A115" s="7" t="s">
         <v>293</v>
       </c>
@@ -7321,7 +7325,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A116" s="7" t="s">
         <v>303</v>
       </c>
@@ -7346,7 +7350,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A117" s="7" t="s">
         <v>314</v>
       </c>
@@ -7371,7 +7375,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A118" s="7" t="s">
         <v>318</v>
       </c>
@@ -7394,7 +7398,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A119" s="7" t="s">
         <v>325</v>
       </c>
@@ -7419,7 +7423,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A120" s="7" t="s">
         <v>336</v>
       </c>
@@ -7444,7 +7448,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A121" s="7" t="s">
         <v>423</v>
       </c>
@@ -7471,7 +7475,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A122" s="7" t="s">
         <v>431</v>
       </c>
@@ -7496,7 +7500,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A123" s="7" t="s">
         <v>436</v>
       </c>
@@ -7525,7 +7529,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A124" s="7" t="s">
         <v>443</v>
       </c>
@@ -7548,7 +7552,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A125" s="7" t="s">
         <v>445</v>
       </c>
@@ -7575,7 +7579,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A126" s="7" t="s">
         <v>447</v>
       </c>
@@ -7602,7 +7606,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A127" s="7" t="s">
         <v>455</v>
       </c>
@@ -7629,7 +7633,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A128" s="7" t="s">
         <v>460</v>
       </c>
@@ -7654,7 +7658,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A129" s="7" t="s">
         <v>463</v>
       </c>
@@ -7679,7 +7683,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A130" s="7" t="s">
         <v>481</v>
       </c>
@@ -7708,7 +7712,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A131" s="7" t="s">
         <v>492</v>
       </c>
@@ -7735,7 +7739,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A132" s="7" t="s">
         <v>494</v>
       </c>
@@ -7760,7 +7764,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A133" s="7" t="s">
         <v>497</v>
       </c>
@@ -7783,7 +7787,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A134" s="7" t="s">
         <v>499</v>
       </c>
@@ -7806,7 +7810,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A135" s="7" t="s">
         <v>500</v>
       </c>
@@ -7829,7 +7833,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A136" s="7" t="s">
         <v>501</v>
       </c>
@@ -7852,7 +7856,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A137" s="7" t="s">
         <v>502</v>
       </c>
@@ -7875,7 +7879,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A138" s="7" t="s">
         <v>504</v>
       </c>
@@ -7898,7 +7902,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A139" s="7" t="s">
         <v>516</v>
       </c>
@@ -7921,7 +7925,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A140" s="7" t="s">
         <v>520</v>
       </c>
@@ -7944,7 +7948,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A141" s="7" t="s">
         <v>567</v>
       </c>
@@ -7969,7 +7973,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A142" s="7" t="s">
         <v>572</v>
       </c>
@@ -7992,7 +7996,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A143" s="7" t="s">
         <v>574</v>
       </c>
@@ -8019,7 +8023,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A144" s="7" t="s">
         <v>579</v>
       </c>
@@ -8042,7 +8046,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A145" s="7" t="s">
         <v>582</v>
       </c>
@@ -8065,7 +8069,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A146" s="7" t="s">
         <v>588</v>
       </c>
@@ -8088,7 +8092,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A147" s="7" t="s">
         <v>589</v>
       </c>
@@ -8111,7 +8115,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A148" s="7" t="s">
         <v>590</v>
       </c>
@@ -8134,7 +8138,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A149" s="7" t="s">
         <v>591</v>
       </c>
@@ -8157,7 +8161,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A150" s="7" t="s">
         <v>599</v>
       </c>
@@ -8180,7 +8184,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A151" s="7" t="s">
         <v>656</v>
       </c>
@@ -8205,7 +8209,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A152" s="7" t="s">
         <v>660</v>
       </c>
@@ -8230,7 +8234,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A153" s="7" t="s">
         <v>665</v>
       </c>
@@ -8255,7 +8259,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A154" s="7" t="s">
         <v>667</v>
       </c>
@@ -8280,7 +8284,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A155" s="7" t="s">
         <v>670</v>
       </c>
@@ -8307,7 +8311,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A156" s="7" t="s">
         <v>673</v>
       </c>
@@ -8334,7 +8338,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A157" s="7" t="s">
         <v>676</v>
       </c>
@@ -8361,7 +8365,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A158" s="7" t="s">
         <v>682</v>
       </c>
@@ -8388,7 +8392,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A159" s="7" t="s">
         <v>689</v>
       </c>
@@ -8413,7 +8417,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A160" s="7" t="s">
         <v>701</v>
       </c>
@@ -8436,7 +8440,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A161" s="7" t="s">
         <v>714</v>
       </c>
@@ -8461,7 +8465,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A162" s="7" t="s">
         <v>716</v>
       </c>
@@ -8486,7 +8490,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A163" s="7" t="s">
         <v>730</v>
       </c>
@@ -8513,7 +8517,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A164" s="7" t="s">
         <v>733</v>
       </c>
@@ -8538,7 +8542,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A165" s="7" t="s">
         <v>750</v>
       </c>
@@ -8563,7 +8567,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A166" s="7" t="s">
         <v>753</v>
       </c>
@@ -8588,7 +8592,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A167" s="7" t="s">
         <v>759</v>
       </c>
@@ -8615,7 +8619,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A168" s="7" t="s">
         <v>772</v>
       </c>
@@ -8642,7 +8646,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A169" s="7" t="s">
         <v>778</v>
       </c>
@@ -8665,7 +8669,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A170" s="7" t="s">
         <v>212</v>
       </c>
@@ -8692,7 +8696,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A171" s="7" t="s">
         <v>269</v>
       </c>
@@ -8721,7 +8725,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A172" s="7" t="s">
         <v>271</v>
       </c>
@@ -8746,7 +8750,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A173" s="7" t="s">
         <v>291</v>
       </c>
@@ -8771,7 +8775,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A174" s="7" t="s">
         <v>300</v>
       </c>
@@ -8796,7 +8800,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A175" s="7" t="s">
         <v>307</v>
       </c>
@@ -8821,7 +8825,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A176" s="7" t="s">
         <v>309</v>
       </c>
@@ -8846,7 +8850,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A177" s="7" t="s">
         <v>310</v>
       </c>
@@ -8869,7 +8873,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A178" s="7" t="s">
         <v>352</v>
       </c>
@@ -8892,7 +8896,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A179" s="7" t="s">
         <v>53</v>
       </c>
@@ -8917,7 +8921,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A180" s="7" t="s">
         <v>80</v>
       </c>
@@ -8942,7 +8946,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A181" s="7" t="s">
         <v>83</v>
       </c>
@@ -8967,7 +8971,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A182" s="7" t="s">
         <v>85</v>
       </c>
@@ -8992,7 +8996,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A183" s="7" t="s">
         <v>88</v>
       </c>
@@ -9017,7 +9021,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A184" s="7" t="s">
         <v>89</v>
       </c>
@@ -9042,7 +9046,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A185" s="7" t="s">
         <v>92</v>
       </c>
@@ -9067,7 +9071,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A186" s="7" t="s">
         <v>96</v>
       </c>
@@ -9092,7 +9096,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A187" s="7" t="s">
         <v>101</v>
       </c>
@@ -9117,7 +9121,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A188" s="7" t="s">
         <v>103</v>
       </c>
@@ -9144,7 +9148,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A189" s="7" t="s">
         <v>109</v>
       </c>
@@ -9169,7 +9173,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A190" s="7" t="s">
         <v>117</v>
       </c>
@@ -9194,7 +9198,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A191" s="7" t="s">
         <v>119</v>
       </c>
@@ -9219,7 +9223,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A192" s="7" t="s">
         <v>121</v>
       </c>
@@ -9246,7 +9250,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A193" s="7" t="s">
         <v>127</v>
       </c>
@@ -9271,7 +9275,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A194" s="7" t="s">
         <v>128</v>
       </c>
@@ -9296,7 +9300,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A195" s="7" t="s">
         <v>133</v>
       </c>
@@ -9321,7 +9325,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A196" s="7" t="s">
         <v>136</v>
       </c>
@@ -9346,7 +9350,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A197" s="7" t="s">
         <v>139</v>
       </c>
@@ -9371,7 +9375,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A198" s="7" t="s">
         <v>142</v>
       </c>
@@ -9400,7 +9404,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A199" s="7" t="s">
         <v>144</v>
       </c>
@@ -9425,7 +9429,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A200" s="7" t="s">
         <v>147</v>
       </c>
@@ -9450,7 +9454,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A201" s="7" t="s">
         <v>152</v>
       </c>
@@ -9475,7 +9479,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A202" s="7" t="s">
         <v>157</v>
       </c>
@@ -9500,7 +9504,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A203" s="7" t="s">
         <v>160</v>
       </c>
@@ -9525,7 +9529,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A204" s="7" t="s">
         <v>166</v>
       </c>
@@ -9552,7 +9556,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A205" s="7" t="s">
         <v>181</v>
       </c>
@@ -9577,7 +9581,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A206" s="7" t="s">
         <v>184</v>
       </c>
@@ -9602,7 +9606,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A207" s="7" t="s">
         <v>186</v>
       </c>
@@ -9627,7 +9631,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A208" s="7" t="s">
         <v>188</v>
       </c>
@@ -9652,7 +9656,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A209" s="7" t="s">
         <v>191</v>
       </c>
@@ -9677,7 +9681,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A210" s="7" t="s">
         <v>194</v>
       </c>
@@ -9702,7 +9706,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A211" s="7" t="s">
         <v>197</v>
       </c>
@@ -9727,7 +9731,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A212" s="7" t="s">
         <v>200</v>
       </c>
@@ -9756,7 +9760,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A213" s="7" t="s">
         <v>203</v>
       </c>
@@ -9781,7 +9785,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A214" s="7" t="s">
         <v>206</v>
       </c>
@@ -9806,7 +9810,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A215" s="7" t="s">
         <v>208</v>
       </c>
@@ -9831,7 +9835,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A216" s="7" t="s">
         <v>210</v>
       </c>
@@ -9856,7 +9860,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A217" s="7" t="s">
         <v>215</v>
       </c>
@@ -9881,7 +9885,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A218" s="7" t="s">
         <v>220</v>
       </c>
@@ -9906,7 +9910,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A219" s="7" t="s">
         <v>225</v>
       </c>
@@ -9931,7 +9935,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A220" s="7" t="s">
         <v>228</v>
       </c>
@@ -9956,7 +9960,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A221" s="7" t="s">
         <v>230</v>
       </c>
@@ -9981,7 +9985,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A222" s="7" t="s">
         <v>232</v>
       </c>
@@ -10006,7 +10010,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A223" s="7" t="s">
         <v>234</v>
       </c>
@@ -10031,7 +10035,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A224" s="7" t="s">
         <v>236</v>
       </c>
@@ -10056,7 +10060,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A225" s="7" t="s">
         <v>238</v>
       </c>
@@ -10081,7 +10085,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A226" s="7" t="s">
         <v>240</v>
       </c>
@@ -10106,7 +10110,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A227" s="7" t="s">
         <v>242</v>
       </c>
@@ -10131,7 +10135,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A228" s="7" t="s">
         <v>245</v>
       </c>
@@ -10156,7 +10160,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A229" s="7" t="s">
         <v>247</v>
       </c>
@@ -10181,7 +10185,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A230" s="7" t="s">
         <v>249</v>
       </c>
@@ -10206,7 +10210,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A231" s="7" t="s">
         <v>251</v>
       </c>
@@ -10231,7 +10235,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A232" s="7" t="s">
         <v>253</v>
       </c>
@@ -10256,7 +10260,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A233" s="7" t="s">
         <v>255</v>
       </c>
@@ -10281,7 +10285,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A234" s="7" t="s">
         <v>264</v>
       </c>
@@ -10306,7 +10310,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A235" s="7" t="s">
         <v>294</v>
       </c>
@@ -10329,7 +10333,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A236" s="7" t="s">
         <v>296</v>
       </c>
@@ -10354,7 +10358,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A237" s="7" t="s">
         <v>297</v>
       </c>
@@ -10379,7 +10383,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A238" s="7" t="s">
         <v>298</v>
       </c>
@@ -10404,7 +10408,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A239" s="7" t="s">
         <v>299</v>
       </c>
@@ -10427,7 +10431,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A240" s="7" t="s">
         <v>301</v>
       </c>
@@ -10452,7 +10456,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A241" s="7" t="s">
         <v>302</v>
       </c>
@@ -10477,7 +10481,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A242" s="7" t="s">
         <v>304</v>
       </c>
@@ -10500,7 +10504,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A243" s="7" t="s">
         <v>305</v>
       </c>
@@ -10525,7 +10529,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A244" s="7" t="s">
         <v>306</v>
       </c>
@@ -10550,7 +10554,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A245" s="7" t="s">
         <v>308</v>
       </c>
@@ -10573,7 +10577,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A246" s="7" t="s">
         <v>311</v>
       </c>
@@ -10598,7 +10602,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A247" s="7" t="s">
         <v>312</v>
       </c>
@@ -10623,7 +10627,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A248" s="7" t="s">
         <v>313</v>
       </c>
@@ -10648,7 +10652,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A249" s="7" t="s">
         <v>315</v>
       </c>
@@ -10671,7 +10675,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A250" s="7" t="s">
         <v>316</v>
       </c>
@@ -10694,7 +10698,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A251" s="7" t="s">
         <v>317</v>
       </c>
@@ -10717,7 +10721,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A252" s="7" t="s">
         <v>331</v>
       </c>
@@ -10742,7 +10746,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A253" s="7" t="s">
         <v>339</v>
       </c>
@@ -10769,7 +10773,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A254" s="7" t="s">
         <v>347</v>
       </c>
@@ -10794,7 +10798,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A255" s="7" t="s">
         <v>349</v>
       </c>
@@ -10819,7 +10823,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A256" s="7" t="s">
         <v>356</v>
       </c>
@@ -10842,7 +10846,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A257" s="7" t="s">
         <v>358</v>
       </c>
@@ -10865,7 +10869,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A258" s="7" t="s">
         <v>359</v>
       </c>
@@ -10888,7 +10892,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A259" s="7" t="s">
         <v>361</v>
       </c>
@@ -10911,7 +10915,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A260" s="7" t="s">
         <v>363</v>
       </c>
@@ -10934,7 +10938,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A261" s="7" t="s">
         <v>365</v>
       </c>
@@ -10957,7 +10961,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A262" s="7" t="s">
         <v>372</v>
       </c>
@@ -10982,7 +10986,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A263" s="7" t="s">
         <v>378</v>
       </c>
@@ -11007,7 +11011,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A264" s="7" t="s">
         <v>381</v>
       </c>
@@ -11034,7 +11038,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A265" s="7" t="s">
         <v>388</v>
       </c>
@@ -11059,7 +11063,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A266" s="7" t="s">
         <v>393</v>
       </c>
@@ -11086,7 +11090,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A267" s="7" t="s">
         <v>396</v>
       </c>
@@ -11109,7 +11113,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A268" s="7" t="s">
         <v>407</v>
       </c>
@@ -11136,7 +11140,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A269" s="7" t="s">
         <v>409</v>
       </c>
@@ -11165,7 +11169,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A270" s="7" t="s">
         <v>415</v>
       </c>
@@ -11190,7 +11194,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A271" s="7" t="s">
         <v>429</v>
       </c>
@@ -11215,7 +11219,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A272" s="7" t="s">
         <v>458</v>
       </c>
@@ -11240,7 +11244,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="273" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A273" s="7" t="s">
         <v>511</v>
       </c>
@@ -11263,7 +11267,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="274" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A274" s="7" t="s">
         <v>513</v>
       </c>
@@ -11286,7 +11290,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="275" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A275" s="7" t="s">
         <v>514</v>
       </c>
@@ -11309,7 +11313,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A276" s="7" t="s">
         <v>515</v>
       </c>
@@ -11332,7 +11336,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="277" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A277" s="7" t="s">
         <v>517</v>
       </c>
@@ -11355,7 +11359,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A278" s="7" t="s">
         <v>518</v>
       </c>
@@ -11378,7 +11382,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A279" s="7" t="s">
         <v>519</v>
       </c>
@@ -11401,7 +11405,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A280" s="7" t="s">
         <v>521</v>
       </c>
@@ -11424,7 +11428,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A281" s="7" t="s">
         <v>522</v>
       </c>
@@ -11447,7 +11451,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A282" s="7" t="s">
         <v>523</v>
       </c>
@@ -11470,7 +11474,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A283" s="7" t="s">
         <v>524</v>
       </c>
@@ -11493,7 +11497,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A284" s="7" t="s">
         <v>525</v>
       </c>
@@ -11516,7 +11520,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A285" s="7" t="s">
         <v>526</v>
       </c>
@@ -11539,7 +11543,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A286" s="7" t="s">
         <v>527</v>
       </c>
@@ -11562,7 +11566,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A287" s="7" t="s">
         <v>528</v>
       </c>
@@ -11585,7 +11589,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A288" s="7" t="s">
         <v>529</v>
       </c>
@@ -11608,7 +11612,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="289" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A289" s="7" t="s">
         <v>530</v>
       </c>
@@ -11631,7 +11635,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A290" s="7" t="s">
         <v>531</v>
       </c>
@@ -11654,7 +11658,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A291" s="7" t="s">
         <v>532</v>
       </c>
@@ -11677,7 +11681,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A292" s="7" t="s">
         <v>533</v>
       </c>
@@ -11700,7 +11704,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A293" s="7" t="s">
         <v>534</v>
       </c>
@@ -11723,7 +11727,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A294" s="7" t="s">
         <v>535</v>
       </c>
@@ -11746,7 +11750,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A295" s="7" t="s">
         <v>536</v>
       </c>
@@ -11769,7 +11773,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A296" s="7" t="s">
         <v>537</v>
       </c>
@@ -11792,7 +11796,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A297" s="7" t="s">
         <v>538</v>
       </c>
@@ -11815,7 +11819,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="298" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A298" s="7" t="s">
         <v>539</v>
       </c>
@@ -11838,7 +11842,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A299" s="7" t="s">
         <v>540</v>
       </c>
@@ -11861,7 +11865,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A300" s="7" t="s">
         <v>541</v>
       </c>
@@ -11884,7 +11888,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A301" s="7" t="s">
         <v>542</v>
       </c>
@@ -11907,7 +11911,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="302" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A302" s="7" t="s">
         <v>543</v>
       </c>
@@ -11930,7 +11934,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="303" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A303" s="7" t="s">
         <v>544</v>
       </c>
@@ -11953,7 +11957,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="304" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A304" s="7" t="s">
         <v>545</v>
       </c>
@@ -11976,7 +11980,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A305" s="7" t="s">
         <v>546</v>
       </c>
@@ -11999,7 +12003,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A306" s="7" t="s">
         <v>547</v>
       </c>
@@ -12022,7 +12026,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A307" s="7" t="s">
         <v>548</v>
       </c>
@@ -12045,7 +12049,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A308" s="7" t="s">
         <v>549</v>
       </c>
@@ -12068,7 +12072,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A309" s="7" t="s">
         <v>550</v>
       </c>
@@ -12091,7 +12095,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="310" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A310" s="7" t="s">
         <v>551</v>
       </c>
@@ -12114,7 +12118,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="311" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A311" s="7" t="s">
         <v>552</v>
       </c>
@@ -12137,7 +12141,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A312" s="7" t="s">
         <v>553</v>
       </c>
@@ -12160,7 +12164,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="313" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A313" s="7" t="s">
         <v>554</v>
       </c>
@@ -12183,7 +12187,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="314" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A314" s="7" t="s">
         <v>555</v>
       </c>
@@ -12206,7 +12210,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="315" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A315" s="7" t="s">
         <v>556</v>
       </c>
@@ -12229,7 +12233,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="316" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A316" s="7" t="s">
         <v>557</v>
       </c>
@@ -12252,7 +12256,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A317" s="7" t="s">
         <v>558</v>
       </c>
@@ -12275,7 +12279,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A318" s="7" t="s">
         <v>559</v>
       </c>
@@ -12298,7 +12302,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A319" s="7" t="s">
         <v>560</v>
       </c>
@@ -12321,7 +12325,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="320" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A320" s="7" t="s">
         <v>561</v>
       </c>
@@ -12344,7 +12348,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="321" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A321" s="7" t="s">
         <v>562</v>
       </c>
@@ -12367,7 +12371,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="322" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A322" s="7" t="s">
         <v>563</v>
       </c>
@@ -12390,7 +12394,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="323" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A323" s="7" t="s">
         <v>564</v>
       </c>
@@ -12413,7 +12417,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A324" s="7" t="s">
         <v>565</v>
       </c>
@@ -12436,7 +12440,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A325" s="7" t="s">
         <v>566</v>
       </c>
@@ -12459,7 +12463,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="326" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A326" s="7" t="s">
         <v>584</v>
       </c>
@@ -12482,7 +12486,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A327" s="7" t="s">
         <v>585</v>
       </c>
@@ -12505,7 +12509,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="328" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A328" s="7" t="s">
         <v>586</v>
       </c>
@@ -12528,7 +12532,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A329" s="7" t="s">
         <v>587</v>
       </c>
@@ -12551,7 +12555,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="330" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A330" s="7" t="s">
         <v>593</v>
       </c>
@@ -12574,7 +12578,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="331" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A331" s="7" t="s">
         <v>594</v>
       </c>
@@ -12597,7 +12601,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="332" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A332" s="7" t="s">
         <v>595</v>
       </c>
@@ -12620,7 +12624,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="333" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A333" s="7" t="s">
         <v>596</v>
       </c>
@@ -12643,7 +12647,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="334" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A334" s="7" t="s">
         <v>598</v>
       </c>
@@ -12666,7 +12670,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="335" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A335" s="7" t="s">
         <v>600</v>
       </c>
@@ -12689,7 +12693,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="336" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A336" s="7" t="s">
         <v>601</v>
       </c>
@@ -12712,7 +12716,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="337" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A337" s="7" t="s">
         <v>603</v>
       </c>
@@ -12735,7 +12739,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="338" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A338" s="7" t="s">
         <v>604</v>
       </c>
@@ -12758,7 +12762,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="339" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A339" s="7" t="s">
         <v>605</v>
       </c>
@@ -12781,7 +12785,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="340" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A340" s="7" t="s">
         <v>606</v>
       </c>
@@ -12804,7 +12808,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="341" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A341" s="7" t="s">
         <v>607</v>
       </c>
@@ -12827,7 +12831,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="342" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A342" s="7" t="s">
         <v>608</v>
       </c>
@@ -12850,7 +12854,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="343" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A343" s="7" t="s">
         <v>609</v>
       </c>
@@ -12873,7 +12877,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="344" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A344" s="7" t="s">
         <v>610</v>
       </c>
@@ -12896,7 +12900,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="345" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A345" s="7" t="s">
         <v>611</v>
       </c>
@@ -12919,7 +12923,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="346" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A346" s="7" t="s">
         <v>612</v>
       </c>
@@ -12942,7 +12946,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="347" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A347" s="7" t="s">
         <v>613</v>
       </c>
@@ -12965,7 +12969,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A348" s="7" t="s">
         <v>614</v>
       </c>
@@ -12988,7 +12992,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="349" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A349" s="7" t="s">
         <v>615</v>
       </c>
@@ -13011,7 +13015,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="350" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A350" s="7" t="s">
         <v>616</v>
       </c>
@@ -13034,7 +13038,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="351" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A351" s="7" t="s">
         <v>617</v>
       </c>
@@ -13057,7 +13061,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="352" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A352" s="7" t="s">
         <v>618</v>
       </c>
@@ -13080,7 +13084,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="353" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A353" s="7" t="s">
         <v>619</v>
       </c>
@@ -13103,7 +13107,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A354" s="7" t="s">
         <v>620</v>
       </c>
@@ -13126,7 +13130,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="355" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A355" s="7" t="s">
         <v>621</v>
       </c>
@@ -13149,7 +13153,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="356" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A356" s="7" t="s">
         <v>622</v>
       </c>
@@ -13172,7 +13176,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="357" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A357" s="7" t="s">
         <v>623</v>
       </c>
@@ -13195,7 +13199,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="358" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A358" s="7" t="s">
         <v>624</v>
       </c>
@@ -13218,7 +13222,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="359" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A359" s="7" t="s">
         <v>625</v>
       </c>
@@ -13241,7 +13245,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="360" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A360" s="7" t="s">
         <v>626</v>
       </c>
@@ -13264,7 +13268,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="361" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A361" s="7" t="s">
         <v>627</v>
       </c>
@@ -13287,7 +13291,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="362" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A362" s="7" t="s">
         <v>628</v>
       </c>
@@ -13310,7 +13314,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="363" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A363" s="7" t="s">
         <v>629</v>
       </c>
@@ -13333,7 +13337,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="364" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A364" s="7" t="s">
         <v>630</v>
       </c>
@@ -13356,7 +13360,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="365" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A365" s="7" t="s">
         <v>631</v>
       </c>
@@ -13379,7 +13383,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="366" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A366" s="7" t="s">
         <v>632</v>
       </c>
@@ -13402,7 +13406,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="367" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A367" s="7" t="s">
         <v>633</v>
       </c>
@@ -13425,7 +13429,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="368" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A368" s="7" t="s">
         <v>634</v>
       </c>
@@ -13448,7 +13452,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="369" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A369" s="7" t="s">
         <v>635</v>
       </c>
@@ -13471,7 +13475,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="370" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A370" s="7" t="s">
         <v>636</v>
       </c>
@@ -13494,7 +13498,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="371" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A371" s="7" t="s">
         <v>637</v>
       </c>
@@ -13517,7 +13521,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="372" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A372" s="7" t="s">
         <v>638</v>
       </c>
@@ -13540,7 +13544,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="373" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A373" s="7" t="s">
         <v>639</v>
       </c>
@@ -13563,7 +13567,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="374" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A374" s="7" t="s">
         <v>640</v>
       </c>
@@ -13586,7 +13590,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="375" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A375" s="7" t="s">
         <v>641</v>
       </c>
@@ -13609,7 +13613,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="376" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A376" s="7" t="s">
         <v>642</v>
       </c>
@@ -13632,7 +13636,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="377" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A377" s="7" t="s">
         <v>643</v>
       </c>
@@ -13655,7 +13659,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="378" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A378" s="7" t="s">
         <v>644</v>
       </c>
@@ -13678,7 +13682,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="379" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A379" s="7" t="s">
         <v>645</v>
       </c>
@@ -13701,7 +13705,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="380" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A380" s="7" t="s">
         <v>646</v>
       </c>
@@ -13724,7 +13728,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="381" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A381" s="7" t="s">
         <v>647</v>
       </c>
@@ -13747,7 +13751,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="382" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A382" s="7" t="s">
         <v>648</v>
       </c>
@@ -13770,7 +13774,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="383" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A383" s="7" t="s">
         <v>649</v>
       </c>
@@ -13793,7 +13797,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="384" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A384" s="7" t="s">
         <v>650</v>
       </c>
@@ -13816,7 +13820,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="385" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A385" s="7" t="s">
         <v>651</v>
       </c>
@@ -13839,7 +13843,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="386" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A386" s="7" t="s">
         <v>652</v>
       </c>
@@ -13862,7 +13866,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="387" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A387" s="7" t="s">
         <v>653</v>
       </c>
@@ -13885,7 +13889,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="388" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A388" s="7" t="s">
         <v>654</v>
       </c>
@@ -13908,7 +13912,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="389" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A389" s="7" t="s">
         <v>679</v>
       </c>
@@ -13933,7 +13937,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="390" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A390" s="7" t="s">
         <v>684</v>
       </c>
@@ -13958,7 +13962,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="391" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A391" s="7" t="s">
         <v>686</v>
       </c>
@@ -13983,7 +13987,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="392" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A392" s="7" t="s">
         <v>691</v>
       </c>
@@ -14008,7 +14012,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="393" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A393" s="7" t="s">
         <v>693</v>
       </c>
@@ -14033,7 +14037,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="394" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A394" s="7" t="s">
         <v>695</v>
       </c>
@@ -14056,7 +14060,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="395" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A395" s="7" t="s">
         <v>696</v>
       </c>
@@ -14081,7 +14085,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="396" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A396" s="7" t="s">
         <v>703</v>
       </c>
@@ -14106,7 +14110,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="397" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A397" s="7" t="s">
         <v>706</v>
       </c>
@@ -14131,7 +14135,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="398" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A398" s="7" t="s">
         <v>708</v>
       </c>
@@ -14156,7 +14160,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="399" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A399" s="7" t="s">
         <v>710</v>
       </c>
@@ -14181,7 +14185,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="400" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A400" s="7" t="s">
         <v>712</v>
       </c>
@@ -14206,7 +14210,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="401" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A401" s="7" t="s">
         <v>718</v>
       </c>
@@ -14231,7 +14235,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="402" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A402" s="7" t="s">
         <v>720</v>
       </c>
@@ -14256,7 +14260,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="403" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A403" s="7" t="s">
         <v>722</v>
       </c>
@@ -14281,7 +14285,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="404" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A404" s="7" t="s">
         <v>724</v>
       </c>
@@ -14306,7 +14310,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="405" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A405" s="7" t="s">
         <v>736</v>
       </c>
@@ -14331,7 +14335,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="406" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A406" s="7" t="s">
         <v>739</v>
       </c>
@@ -14356,7 +14360,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="407" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A407" s="7" t="s">
         <v>742</v>
       </c>
@@ -14379,7 +14383,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="408" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A408" s="7" t="s">
         <v>744</v>
       </c>
@@ -14402,7 +14406,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="409" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A409" s="7" t="s">
         <v>745</v>
       </c>
@@ -14427,7 +14431,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="410" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A410" s="7" t="s">
         <v>747</v>
       </c>
@@ -14452,7 +14456,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="411" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A411" s="7" t="s">
         <v>764</v>
       </c>
@@ -14475,7 +14479,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="412" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A412" s="7" t="s">
         <v>766</v>
       </c>
@@ -14500,7 +14504,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="413" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A413" s="7" t="s">
         <v>768</v>
       </c>
@@ -14525,7 +14529,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="414" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A414" s="7" t="s">
         <v>770</v>
       </c>
@@ -14552,7 +14556,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="415" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A415" s="7" t="s">
         <v>774</v>
       </c>
@@ -14577,7 +14581,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="416" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A416" s="7" t="s">
         <v>777</v>
       </c>
@@ -14602,7 +14606,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="417" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A417" s="7" t="s">
         <v>780</v>
       </c>
@@ -14625,7 +14629,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="418" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A418" s="7" t="s">
         <v>781</v>
       </c>
@@ -14648,7 +14652,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="419" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A419" s="7" t="s">
         <v>782</v>
       </c>
@@ -14674,35 +14678,35 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:IU420">
-    <sortState ref="A2:IU420">
+  <autoFilter ref="A1:IU420" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:IU420">
       <sortCondition descending="1" ref="E1:E420"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1" display="va.gov"/>
-    <hyperlink ref="A12" r:id="rId2" display="va.gov"/>
-    <hyperlink ref="B12" r:id="rId3" display="www.va.gov"/>
-    <hyperlink ref="B4" r:id="rId4" display="VA.gov"/>
-    <hyperlink ref="B6" r:id="rId5" display="VA.gov"/>
-    <hyperlink ref="B21" r:id="rId6" display="Vets.gov"/>
-    <hyperlink ref="B17" r:id="rId7" display="design.va.gov"/>
-    <hyperlink ref="B20" r:id="rId8" display="VA.gov"/>
-    <hyperlink ref="B41" r:id="rId9" display="design.va.gov"/>
-    <hyperlink ref="B35" r:id="rId10" display="https://department-of-veterans-affairs.github.io/va-digital-service-handbook/"/>
-    <hyperlink ref="A14" r:id="rId11" display="va.gov"/>
-    <hyperlink ref="A171" r:id="rId12" display="vets.gov"/>
-    <hyperlink ref="B171" r:id="rId13" display="Vets.gov"/>
-    <hyperlink ref="A53" r:id="rId14" display="vets.gov"/>
-    <hyperlink ref="B53" r:id="rId15" display="vets.gov"/>
-    <hyperlink ref="A70" r:id="rId16" display="vets.gov"/>
-    <hyperlink ref="B120" r:id="rId17" display="vets.gov"/>
-    <hyperlink ref="A123" r:id="rId18" display="vets.gov"/>
-    <hyperlink ref="B123" r:id="rId19" display="Vets.gov"/>
-    <hyperlink ref="A73" r:id="rId20"/>
-    <hyperlink ref="B73" r:id="rId21" display="Vets.gov"/>
-    <hyperlink ref="B143" r:id="rId22" display="vets.gov"/>
-    <hyperlink ref="B19" r:id="rId23" display="data.gov"/>
+    <hyperlink ref="A8" r:id="rId1" display="va.gov" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A12" r:id="rId2" display="va.gov" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B12" r:id="rId3" display="www.va.gov" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B4" r:id="rId4" display="VA.gov" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" display="VA.gov" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B21" r:id="rId6" display="Vets.gov" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B17" r:id="rId7" display="design.va.gov" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B20" r:id="rId8" display="VA.gov" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B41" r:id="rId9" display="design.va.gov" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B35" r:id="rId10" display="https://department-of-veterans-affairs.github.io/va-digital-service-handbook/" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A14" r:id="rId11" display="va.gov" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A171" r:id="rId12" display="vets.gov" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B171" r:id="rId13" display="Vets.gov" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A53" r:id="rId14" display="vets.gov" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B53" r:id="rId15" display="vets.gov" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A70" r:id="rId16" display="vets.gov" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B120" r:id="rId17" display="vets.gov" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A123" r:id="rId18" display="vets.gov" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B123" r:id="rId19" display="Vets.gov" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A73" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B73" r:id="rId21" display="Vets.gov" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B143" r:id="rId22" display="vets.gov" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B19" r:id="rId23" display="data.gov" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
